--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value337.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value337.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7433669603865141</v>
+        <v>0.8031004071235657</v>
       </c>
       <c r="B1">
-        <v>1.602450968788868</v>
+        <v>1.509137511253357</v>
       </c>
       <c r="C1">
-        <v>4.623745002047368</v>
+        <v>5.876585483551025</v>
       </c>
       <c r="D1">
-        <v>2.059697194159431</v>
+        <v>3.124348640441895</v>
       </c>
       <c r="E1">
-        <v>1.091989819873859</v>
+        <v>1.466284513473511</v>
       </c>
     </row>
   </sheetData>
